--- a/biology/Botanique/Sarcococca_ruscifolia/Sarcococca_ruscifolia.xlsx
+++ b/biology/Botanique/Sarcococca_ruscifolia/Sarcococca_ruscifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Sarcocoque à feuilles de Ruscus (Sarcococca ruscifolia Stapf) est une espèce d'arbuste de la famille des Buxaceae. Originaire de Chine, il est cultivé comme arbuste d'ornement. Le nom scientifique de cette espèce provient de la ressemblance de sa feuille avec celle des Ruscus, genre du Petit-houx.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un petit arbuste à feuillage persistant, de moins d'un mètre de haut et de croissance très lente. Les feuilles sont alternes, coriaces, vert brillant, entières, elliptiques et crénelées.
 Sa floraison hivernale est parfumée. Les fleurs apétales sont situées à la naissance des bractées et regroupées en petites grappes axillaires.
@@ -554,7 +568,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire de Chine (Guizhou, Hubei, Hunan, Sichuan, Yunnan...).
 </t>
@@ -585,14 +601,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite en 1910 par le botaniste autrichien Otto Stapf (1857-1933). L'épithète spécifique ruscifolia signifie « à feuille de Ruscus », en référence à leur ressemblance avec le feuillage des espèces du genre Ruscus.
-Liste des variétés
-Selon NCBI  (16 mars 2017)[1] :
-variété Sarcococca ruscifolia var. ruscifolia
-Selon Tropicos                                           (16 mars 2017)[2] :
-variété Sarcococca ruscifolia var. chinensis (Franch.) Rehder &amp; E.H. Wilson</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite en 1910 par le botaniste autrichien Otto Stapf (1857-1933). L'épithète spécifique ruscifolia signifie « à feuille de Ruscus », en référence à leur ressemblance avec le feuillage des espèces du genre Ruscus.
+</t>
         </is>
       </c>
     </row>
@@ -617,10 +631,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (16 mars 2017) :
+variété Sarcococca ruscifolia var. ruscifolia
+Selon Tropicos                                           (16 mars 2017) :
+variété Sarcococca ruscifolia var. chinensis (Franch.) Rehder &amp; E.H. Wilson</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sarcococca_ruscifolia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarcococca_ruscifolia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce à lent développement, floraison hivernale et parfumée, rustique jusqu'à -7° et supportant bien une situation ombragée, a une utilisation ornementale.
 </t>
